--- a/data/pca/factorExposure/factorExposure_2013-01-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-22.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0008076014722252958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001832670894830029</v>
+      </c>
+      <c r="C2">
+        <v>-0.03213407749073933</v>
+      </c>
+      <c r="D2">
+        <v>0.005355808083077536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003691973130982704</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006328419942871496</v>
+      </c>
+      <c r="C4">
+        <v>-0.08442438678409273</v>
+      </c>
+      <c r="D4">
+        <v>0.07955556662661846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0002331508911824221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01418063401757603</v>
+      </c>
+      <c r="C6">
+        <v>-0.1130640968054511</v>
+      </c>
+      <c r="D6">
+        <v>0.0322368944212426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002114661547246517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005093382688916879</v>
+      </c>
+      <c r="C7">
+        <v>-0.05787312059133963</v>
+      </c>
+      <c r="D7">
+        <v>0.03308818861482632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007959185009861311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005807199029529166</v>
+      </c>
+      <c r="C8">
+        <v>-0.0384565883301684</v>
+      </c>
+      <c r="D8">
+        <v>0.0446518049792731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003432059867335887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004467573137864189</v>
+      </c>
+      <c r="C9">
+        <v>-0.07043666509865096</v>
+      </c>
+      <c r="D9">
+        <v>0.07154158487016218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002208179341149964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005425915668817448</v>
+      </c>
+      <c r="C10">
+        <v>-0.05758652170710656</v>
+      </c>
+      <c r="D10">
+        <v>-0.1976037303483727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002684711346019328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005782219012735787</v>
+      </c>
+      <c r="C11">
+        <v>-0.08051462249198686</v>
+      </c>
+      <c r="D11">
+        <v>0.06049697698364391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004589108324280475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004090393838345443</v>
+      </c>
+      <c r="C12">
+        <v>-0.06437759763921393</v>
+      </c>
+      <c r="D12">
+        <v>0.04763185136953024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002079692000867663</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008794364901934889</v>
+      </c>
+      <c r="C13">
+        <v>-0.06674246045742961</v>
+      </c>
+      <c r="D13">
+        <v>0.06118811480469468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009856356399725221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001590900440919755</v>
+      </c>
+      <c r="C14">
+        <v>-0.04537976377870932</v>
+      </c>
+      <c r="D14">
+        <v>0.007510242732287861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007312956639976058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006057708114261112</v>
+      </c>
+      <c r="C15">
+        <v>-0.04248944772810778</v>
+      </c>
+      <c r="D15">
+        <v>0.02854155178232776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0009053672638024102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005102690058387329</v>
+      </c>
+      <c r="C16">
+        <v>-0.06587175621375119</v>
+      </c>
+      <c r="D16">
+        <v>0.04712467826580848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>6.832911446230074e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008905191994979899</v>
+      </c>
+      <c r="C20">
+        <v>-0.0654034408630777</v>
+      </c>
+      <c r="D20">
+        <v>0.04136279047657661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005724697168752972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.00999766855515127</v>
+      </c>
+      <c r="C21">
+        <v>-0.02103752817544768</v>
+      </c>
+      <c r="D21">
+        <v>0.04005294465246286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01680622731804243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006771881027384204</v>
+      </c>
+      <c r="C22">
+        <v>-0.09392867709944441</v>
+      </c>
+      <c r="D22">
+        <v>0.1086573988076833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01710778792164472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006588530973617878</v>
+      </c>
+      <c r="C23">
+        <v>-0.09475164361056079</v>
+      </c>
+      <c r="D23">
+        <v>0.1086857394450473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001364298328140678</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005477475592004639</v>
+      </c>
+      <c r="C24">
+        <v>-0.07661221893101933</v>
+      </c>
+      <c r="D24">
+        <v>0.06116072753566779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003895414437044634</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003043405284712162</v>
+      </c>
+      <c r="C25">
+        <v>-0.07871485688812055</v>
+      </c>
+      <c r="D25">
+        <v>0.06642441044782135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004882497771174473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003670832502286737</v>
+      </c>
+      <c r="C26">
+        <v>-0.04167463050073771</v>
+      </c>
+      <c r="D26">
+        <v>0.02061894231881665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005745832685966838</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009057438494535971</v>
+      </c>
+      <c r="C28">
+        <v>-0.107147027200969</v>
+      </c>
+      <c r="D28">
+        <v>-0.3169678151480509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001025756242231701</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003188194541395488</v>
+      </c>
+      <c r="C29">
+        <v>-0.04908912940039764</v>
+      </c>
+      <c r="D29">
+        <v>0.005910082673665933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003358873480481464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009570940728167549</v>
+      </c>
+      <c r="C30">
+        <v>-0.1430621934901731</v>
+      </c>
+      <c r="D30">
+        <v>0.09201774423918105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001130466361559839</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.0062576818131833</v>
+      </c>
+      <c r="C31">
+        <v>-0.04465180626527213</v>
+      </c>
+      <c r="D31">
+        <v>0.03104806220282691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.000615943587248402</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.00414322156123514</v>
+      </c>
+      <c r="C32">
+        <v>-0.04077749972948638</v>
+      </c>
+      <c r="D32">
+        <v>0.02095468480667413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002683115609865267</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008373383240237512</v>
+      </c>
+      <c r="C33">
+        <v>-0.08580507142491103</v>
+      </c>
+      <c r="D33">
+        <v>0.06784937706406677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004308876089795814</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00399144714940858</v>
+      </c>
+      <c r="C34">
+        <v>-0.05803348606911452</v>
+      </c>
+      <c r="D34">
+        <v>0.05424187214351004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001555567738655346</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004908646927580264</v>
+      </c>
+      <c r="C35">
+        <v>-0.03960347572380009</v>
+      </c>
+      <c r="D35">
+        <v>0.01864465380739369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003656382098181188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001115246243944815</v>
+      </c>
+      <c r="C36">
+        <v>-0.02457262477734148</v>
+      </c>
+      <c r="D36">
+        <v>0.02113696345140794</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002279648520054058</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00951985270817567</v>
+      </c>
+      <c r="C38">
+        <v>-0.03556565852753255</v>
+      </c>
+      <c r="D38">
+        <v>0.014701902430833</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01194975806153718</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0005155762242879479</v>
+      </c>
+      <c r="C39">
+        <v>-0.1160585516931141</v>
+      </c>
+      <c r="D39">
+        <v>0.07266585019338749</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.01013668795027295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002735913451434072</v>
+      </c>
+      <c r="C40">
+        <v>-0.09116101003243923</v>
+      </c>
+      <c r="D40">
+        <v>0.00803869788209172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001229488839488371</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007244156629645311</v>
+      </c>
+      <c r="C41">
+        <v>-0.03800736697096244</v>
+      </c>
+      <c r="D41">
+        <v>0.03431961428452075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002831952027583744</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004035090094346965</v>
+      </c>
+      <c r="C43">
+        <v>-0.05331608761933316</v>
+      </c>
+      <c r="D43">
+        <v>0.02364005967618896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004226377915990705</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003452292504673266</v>
+      </c>
+      <c r="C44">
+        <v>-0.1096978235185606</v>
+      </c>
+      <c r="D44">
+        <v>0.06807047364285358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009861990613766216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002220256424839028</v>
+      </c>
+      <c r="C46">
+        <v>-0.03346092583793327</v>
+      </c>
+      <c r="D46">
+        <v>0.03170785779790689</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>5.599459758948913e-06</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002710047685509268</v>
+      </c>
+      <c r="C47">
+        <v>-0.03738807127674122</v>
+      </c>
+      <c r="D47">
+        <v>0.02232277965741602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003632139934556377</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006593809282390973</v>
+      </c>
+      <c r="C48">
+        <v>-0.03034174904093064</v>
+      </c>
+      <c r="D48">
+        <v>0.03140253471829706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01207750551589473</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01536698714374759</v>
+      </c>
+      <c r="C49">
+        <v>-0.1836994512589704</v>
+      </c>
+      <c r="D49">
+        <v>0.01311096321411819</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.00166123914342245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003612118811200767</v>
+      </c>
+      <c r="C50">
+        <v>-0.04308423934814335</v>
+      </c>
+      <c r="D50">
+        <v>0.03502879163298843</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007202209229908078</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004490591310815147</v>
+      </c>
+      <c r="C51">
+        <v>-0.02684035808679537</v>
+      </c>
+      <c r="D51">
+        <v>0.02059250677296163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008102109563390343</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02088406201131866</v>
+      </c>
+      <c r="C53">
+        <v>-0.169045640577394</v>
+      </c>
+      <c r="D53">
+        <v>0.02891260713000179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001221465856401673</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008700305373565555</v>
+      </c>
+      <c r="C54">
+        <v>-0.05429542008716632</v>
+      </c>
+      <c r="D54">
+        <v>0.04494109771748636</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003842861609670105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009471215569175908</v>
+      </c>
+      <c r="C55">
+        <v>-0.1084289584109635</v>
+      </c>
+      <c r="D55">
+        <v>0.03819664475907253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002749392516279486</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02009138964510102</v>
+      </c>
+      <c r="C56">
+        <v>-0.1741043223552538</v>
+      </c>
+      <c r="D56">
+        <v>0.02895314872140353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.00715892156507766</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01975714479644299</v>
+      </c>
+      <c r="C58">
+        <v>-0.1110381331531348</v>
+      </c>
+      <c r="D58">
+        <v>0.0510885816110694</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006961852508890082</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009771463459552572</v>
+      </c>
+      <c r="C59">
+        <v>-0.1627187664824682</v>
+      </c>
+      <c r="D59">
+        <v>-0.318165431499325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003982712835483543</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02389671909455563</v>
+      </c>
+      <c r="C60">
+        <v>-0.2212537970035309</v>
+      </c>
+      <c r="D60">
+        <v>0.03367396534799136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01360123320429974</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.00165647906004148</v>
+      </c>
+      <c r="C61">
+        <v>-0.09560879312436382</v>
+      </c>
+      <c r="D61">
+        <v>0.05786927079823111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1637306297437484</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1448250180281384</v>
+      </c>
+      <c r="C62">
+        <v>-0.09192892919101608</v>
+      </c>
+      <c r="D62">
+        <v>0.04684918612400616</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0008332114026572008</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006317008727250551</v>
+      </c>
+      <c r="C63">
+        <v>-0.05533568259392017</v>
+      </c>
+      <c r="D63">
+        <v>0.02561153321087317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.000517845115844632</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01544236243060243</v>
+      </c>
+      <c r="C64">
+        <v>-0.1059133184488691</v>
+      </c>
+      <c r="D64">
+        <v>0.06052017405674721</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002843508936916993</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01796428939132023</v>
+      </c>
+      <c r="C65">
+        <v>-0.1228012523274088</v>
+      </c>
+      <c r="D65">
+        <v>0.01748464467291272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007726719046043879</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01317967588588298</v>
+      </c>
+      <c r="C66">
+        <v>-0.1606092654457824</v>
+      </c>
+      <c r="D66">
+        <v>0.1124381028589539</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003533917588437794</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0156923844794105</v>
+      </c>
+      <c r="C67">
+        <v>-0.06601150659849002</v>
+      </c>
+      <c r="D67">
+        <v>0.02639388578572619</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006498444654196463</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0006360050031331752</v>
+      </c>
+      <c r="C68">
+        <v>-0.08698850348197075</v>
+      </c>
+      <c r="D68">
+        <v>-0.258816603450026</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002312848956393027</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006215973809310289</v>
+      </c>
+      <c r="C69">
+        <v>-0.05057437513423048</v>
+      </c>
+      <c r="D69">
+        <v>0.03905612617096103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003478797254143405</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001910442006517395</v>
+      </c>
+      <c r="C70">
+        <v>-0.002653304533009344</v>
+      </c>
+      <c r="D70">
+        <v>0.002716581450223667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0004553837796317441</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005924806218029631</v>
+      </c>
+      <c r="C71">
+        <v>-0.09676281834988741</v>
+      </c>
+      <c r="D71">
+        <v>-0.308628752816417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003912814008927862</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01606186963927086</v>
+      </c>
+      <c r="C72">
+        <v>-0.1527395025252115</v>
+      </c>
+      <c r="D72">
+        <v>0.02183361580641788</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01161053167474147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03086724399098637</v>
+      </c>
+      <c r="C73">
+        <v>-0.2789889155249906</v>
+      </c>
+      <c r="D73">
+        <v>0.05447002164540846</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00466962840344772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001982092387521389</v>
+      </c>
+      <c r="C74">
+        <v>-0.1045591134542138</v>
+      </c>
+      <c r="D74">
+        <v>0.03623731490838677</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.00262647630435247</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01100018212274464</v>
+      </c>
+      <c r="C75">
+        <v>-0.1252559195239321</v>
+      </c>
+      <c r="D75">
+        <v>0.02369151245994556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009172006891733392</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02177962499845077</v>
+      </c>
+      <c r="C76">
+        <v>-0.1485351391776188</v>
+      </c>
+      <c r="D76">
+        <v>0.06076010095193073</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0008412860111837758</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02389387719867906</v>
+      </c>
+      <c r="C77">
+        <v>-0.1267761540621814</v>
+      </c>
+      <c r="D77">
+        <v>0.08965088443527583</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0002275334306801728</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01479209525979448</v>
+      </c>
+      <c r="C78">
+        <v>-0.09683342492590377</v>
+      </c>
+      <c r="D78">
+        <v>0.06952976966536041</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02282322501763737</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03770332720766534</v>
+      </c>
+      <c r="C79">
+        <v>-0.1559640659540335</v>
+      </c>
+      <c r="D79">
+        <v>0.0346541353006352</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00644829021117535</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01047436810368568</v>
+      </c>
+      <c r="C80">
+        <v>-0.04056934750429804</v>
+      </c>
+      <c r="D80">
+        <v>0.02855475038678649</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001190935422904412</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01537194922540021</v>
+      </c>
+      <c r="C81">
+        <v>-0.1272038111247716</v>
+      </c>
+      <c r="D81">
+        <v>0.03999969324474469</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006036091413146258</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01982766660273184</v>
+      </c>
+      <c r="C82">
+        <v>-0.1407368266779232</v>
+      </c>
+      <c r="D82">
+        <v>0.03944035795919085</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008568267753892125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01008583565774845</v>
+      </c>
+      <c r="C83">
+        <v>-0.05740823795932278</v>
+      </c>
+      <c r="D83">
+        <v>0.05541975063412143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01304848162490486</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01171771677059914</v>
+      </c>
+      <c r="C84">
+        <v>-0.03734044799185961</v>
+      </c>
+      <c r="D84">
+        <v>-0.01283071088103575</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01391789450493701</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02825323576895939</v>
+      </c>
+      <c r="C85">
+        <v>-0.1240905589081528</v>
+      </c>
+      <c r="D85">
+        <v>0.04413298206345256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001897705697453748</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006081032970889714</v>
+      </c>
+      <c r="C86">
+        <v>-0.05083788920880127</v>
+      </c>
+      <c r="D86">
+        <v>0.02193165891945413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004432383800232395</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01023731858180378</v>
+      </c>
+      <c r="C87">
+        <v>-0.128855214718511</v>
+      </c>
+      <c r="D87">
+        <v>0.07274544076009713</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01176150092580303</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002770685442563234</v>
+      </c>
+      <c r="C88">
+        <v>-0.06645025611295274</v>
+      </c>
+      <c r="D88">
+        <v>0.01630122743778314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01412586617070254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001198366551432595</v>
+      </c>
+      <c r="C89">
+        <v>-0.1471764217117424</v>
+      </c>
+      <c r="D89">
+        <v>-0.3370142977105621</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.00220678692733347</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007146013652437395</v>
+      </c>
+      <c r="C90">
+        <v>-0.1219515285214896</v>
+      </c>
+      <c r="D90">
+        <v>-0.3200908728320394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.000652154367015508</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01046522888559534</v>
+      </c>
+      <c r="C91">
+        <v>-0.1017978589845779</v>
+      </c>
+      <c r="D91">
+        <v>0.01976948319467284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007896600423405391</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001077440364441069</v>
+      </c>
+      <c r="C92">
+        <v>-0.1365491784364784</v>
+      </c>
+      <c r="D92">
+        <v>-0.3273972161282188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0003656317091255015</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004939715075931332</v>
+      </c>
+      <c r="C93">
+        <v>-0.1054025453536007</v>
+      </c>
+      <c r="D93">
+        <v>-0.3048400754832437</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003340711844558052</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02257932845468515</v>
+      </c>
+      <c r="C94">
+        <v>-0.1469952799984161</v>
+      </c>
+      <c r="D94">
+        <v>0.05455501744799777</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004473045049767958</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.0166080950263502</v>
+      </c>
+      <c r="C95">
+        <v>-0.1276658904279715</v>
+      </c>
+      <c r="D95">
+        <v>0.05754497222761697</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0001787575857117615</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03608873258003986</v>
+      </c>
+      <c r="C97">
+        <v>-0.2123504167948001</v>
+      </c>
+      <c r="D97">
+        <v>-0.01369308002092447</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003147527621453338</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0366967074667409</v>
+      </c>
+      <c r="C98">
+        <v>-0.2483940706290067</v>
+      </c>
+      <c r="D98">
+        <v>0.05113965792443163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9847597800772183</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9821609331484984</v>
+      </c>
+      <c r="C99">
+        <v>0.1167138120233347</v>
+      </c>
+      <c r="D99">
+        <v>-0.02763666380917469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.000929454744738305</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003225778619090655</v>
+      </c>
+      <c r="C101">
+        <v>-0.04926668247813906</v>
+      </c>
+      <c r="D101">
+        <v>0.006055597671626547</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
